--- a/data/clean/turism_expenditure_by_sex_and_age.xlsx
+++ b/data/clean/turism_expenditure_by_sex_and_age.xlsx
@@ -465,12 +465,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -486,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -528,12 +528,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -549,12 +549,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -570,12 +570,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -591,12 +591,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -612,12 +612,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -633,12 +633,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -654,12 +654,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -675,12 +675,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -696,12 +696,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -717,12 +717,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -738,12 +738,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -759,12 +759,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -780,12 +780,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -801,12 +801,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -822,12 +822,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -864,12 +864,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -885,12 +885,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -906,12 +906,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -927,12 +927,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -948,12 +948,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -969,12 +969,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -990,12 +990,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1557,12 +1557,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1830,12 +1830,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2166,12 +2166,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2229,12 +2229,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2313,12 +2313,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2502,12 +2502,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2565,12 +2565,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2586,12 +2586,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2712,12 +2712,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2880,12 +2880,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2985,12 +2985,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3027,12 +3027,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3111,12 +3111,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3132,12 +3132,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3153,12 +3153,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3237,12 +3237,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3258,12 +3258,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3342,12 +3342,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3405,12 +3405,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3447,12 +3447,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3489,12 +3489,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3510,12 +3510,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3615,12 +3615,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3636,12 +3636,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3699,12 +3699,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3720,12 +3720,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3783,12 +3783,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3804,12 +3804,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3846,12 +3846,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3867,12 +3867,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3930,12 +3930,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3951,12 +3951,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -4014,12 +4014,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -4077,12 +4077,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4098,12 +4098,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -4182,12 +4182,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4224,12 +4224,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4287,12 +4287,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4329,12 +4329,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4350,12 +4350,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4371,12 +4371,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4392,12 +4392,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4455,12 +4455,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4476,12 +4476,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4518,12 +4518,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4539,12 +4539,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4581,12 +4581,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4602,12 +4602,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4644,12 +4644,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -4665,12 +4665,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -4686,12 +4686,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -4707,12 +4707,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4749,12 +4749,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -4812,12 +4812,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4833,12 +4833,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -4854,12 +4854,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -4875,12 +4875,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4896,12 +4896,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4917,12 +4917,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D217" t="n">

--- a/data/clean/turism_expenditure_by_sex_and_age.xlsx
+++ b/data/clean/turism_expenditure_by_sex_and_age.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,20 +440,30 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>stay_type</t>
+          <t>expense_cat</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>expense_cat</t>
+          <t>destiny</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>value</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -465,18 +475,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>34903.37</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -486,18 +506,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>19786.78</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -507,18 +537,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>91911.97</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -528,18 +568,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>89750.75</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="G5" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -549,18 +599,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>87003.92999999999</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -570,18 +630,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>77415.53999999999</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="G7" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -591,18 +661,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1119</v>
-      </c>
-      <c r="E8" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>19633.85</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -612,18 +692,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1045</v>
-      </c>
-      <c r="E9" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>11784.95</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -633,18 +723,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1101</v>
-      </c>
-      <c r="E10" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>51018.22</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -654,18 +754,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1084</v>
-      </c>
-      <c r="E11" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>48848.88</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -675,18 +785,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1063</v>
-      </c>
-      <c r="E12" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>48221.64</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -696,18 +816,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1028</v>
-      </c>
-      <c r="E13" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>42412.78</v>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -717,18 +847,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>137</v>
-      </c>
-      <c r="E14" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1872.14</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -738,18 +878,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>134</v>
-      </c>
-      <c r="E15" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1078.12</v>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -759,18 +909,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>155</v>
-      </c>
-      <c r="E16" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4398.03</v>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -780,18 +940,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>146</v>
-      </c>
-      <c r="E17" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4483.75</v>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -801,18 +971,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>137</v>
-      </c>
-      <c r="E18" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>4250.12</v>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -822,18 +1002,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>130</v>
-      </c>
-      <c r="E19" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3856.4</v>
+      </c>
+      <c r="G19" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -843,18 +1033,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="E20" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>9011.799999999999</v>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -864,18 +1064,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="E21" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>4863.53</v>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -885,18 +1095,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E22" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>23071.43</v>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -906,18 +1126,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="E23" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>21290.52</v>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -927,18 +1157,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="E24" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>21111.96</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -948,18 +1188,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="E25" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>18480.08</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -969,18 +1219,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>27943.05</v>
-      </c>
-      <c r="E26" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>6948.23</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -990,18 +1250,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>15208.87</v>
-      </c>
-      <c r="E27" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4368.54</v>
+      </c>
+      <c r="G27" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -1011,18 +1281,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>77100.69</v>
-      </c>
-      <c r="E28" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>18097.99</v>
+      </c>
+      <c r="G28" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -1032,18 +1312,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>74505.17999999999</v>
-      </c>
-      <c r="E29" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>17336.42</v>
+      </c>
+      <c r="G29" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -1053,18 +1343,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>71641.81</v>
-      </c>
-      <c r="E30" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>17198.96</v>
+      </c>
+      <c r="G30" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -1074,18 +1374,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>63610.11</v>
-      </c>
-      <c r="E31" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>15179.37</v>
+      </c>
+      <c r="G31" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -1095,18 +1405,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1128</v>
-      </c>
-      <c r="E32" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1801.68</v>
+      </c>
+      <c r="G32" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -1116,18 +1436,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>1096</v>
-      </c>
-      <c r="E33" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1474.76</v>
+      </c>
+      <c r="G33" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -1137,18 +1467,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1128</v>
-      </c>
-      <c r="E34" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>5450.78</v>
+      </c>
+      <c r="G34" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -1158,18 +1498,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>1117</v>
-      </c>
-      <c r="E35" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5738.2</v>
+      </c>
+      <c r="G35" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -1179,18 +1529,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E36" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>5660.6</v>
+      </c>
+      <c r="G36" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -1200,18 +1560,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1066</v>
-      </c>
-      <c r="E37" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4896.93</v>
+      </c>
+      <c r="G37" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -1221,18 +1591,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>171</v>
-      </c>
-      <c r="E38" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>15269.52</v>
+      </c>
+      <c r="G38" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -1242,18 +1622,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>170</v>
-      </c>
-      <c r="E39" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>8001.83</v>
+      </c>
+      <c r="G39" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -1263,18 +1653,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>182</v>
-      </c>
-      <c r="E40" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>40893.75</v>
+      </c>
+      <c r="G40" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -1284,18 +1684,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>173</v>
-      </c>
-      <c r="E41" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>40901.87</v>
+      </c>
+      <c r="G41" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -1305,18 +1715,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>161</v>
-      </c>
-      <c r="E42" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>38782.28</v>
+      </c>
+      <c r="G42" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -1326,18 +1746,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>154</v>
-      </c>
-      <c r="E43" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>35002.76</v>
+      </c>
+      <c r="G43" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -1347,18 +1777,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="E44" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2210.45</v>
+      </c>
+      <c r="G44" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -1368,18 +1808,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="E45" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1189.47</v>
+      </c>
+      <c r="G45" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -1389,18 +1839,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="E46" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>5587.71</v>
+      </c>
+      <c r="G46" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -1410,18 +1870,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="E47" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>5593.02</v>
+      </c>
+      <c r="G47" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -1431,18 +1901,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="E48" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>5426.03</v>
+      </c>
+      <c r="G48" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -1452,18 +1932,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>De mercado</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="E49" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>5146.61</v>
+      </c>
+      <c r="G49" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -1473,18 +1963,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>21569.76</v>
-      </c>
-      <c r="E50" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>7144.48</v>
+      </c>
+      <c r="G50" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -1494,18 +1994,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>11379.57</v>
-      </c>
-      <c r="E51" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>3334.93</v>
+      </c>
+      <c r="G51" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -1515,18 +2025,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>59342.11</v>
-      </c>
-      <c r="E52" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>17799.37</v>
+      </c>
+      <c r="G52" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -1536,18 +2056,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>56699.68</v>
-      </c>
-      <c r="E53" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>17469.22</v>
+      </c>
+      <c r="G53" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -1557,18 +2087,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>53818.83</v>
-      </c>
-      <c r="E54" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>16527.43</v>
+      </c>
+      <c r="G54" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -1578,18 +2118,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>48810.58</v>
-      </c>
-      <c r="E55" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>14986.12</v>
+      </c>
+      <c r="G55" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -1599,18 +2149,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>1064</v>
-      </c>
-      <c r="E56" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>4890.31</v>
+      </c>
+      <c r="G56" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -1620,18 +2180,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>1055</v>
-      </c>
-      <c r="E57" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2627.72</v>
+      </c>
+      <c r="G57" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -1641,18 +2211,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>1081</v>
-      </c>
-      <c r="E58" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>13638.76</v>
+      </c>
+      <c r="G58" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -1662,18 +2242,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>1074</v>
-      </c>
-      <c r="E59" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>13862.63</v>
+      </c>
+      <c r="G59" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -1683,18 +2273,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>1047</v>
-      </c>
-      <c r="E60" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>13106.18</v>
+      </c>
+      <c r="G60" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -1704,18 +2304,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>1013</v>
-      </c>
-      <c r="E61" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>11530.56</v>
+      </c>
+      <c r="G61" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -1725,18 +2335,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>199</v>
-      </c>
-      <c r="E62" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1024.27</v>
+      </c>
+      <c r="G62" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -1746,18 +2366,28 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>199</v>
-      </c>
-      <c r="E63" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>849.72</v>
+      </c>
+      <c r="G63" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -1767,18 +2397,28 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>206</v>
-      </c>
-      <c r="E64" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3867.92</v>
+      </c>
+      <c r="G64" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -1788,18 +2428,28 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>197</v>
-      </c>
-      <c r="E65" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>3977</v>
+      </c>
+      <c r="G65" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -1809,18 +2459,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>185</v>
-      </c>
-      <c r="E66" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>3722.65</v>
+      </c>
+      <c r="G66" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -1830,18 +2490,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>174</v>
-      </c>
-      <c r="E67" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>3339.48</v>
+      </c>
+      <c r="G67" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -1851,18 +2521,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="E68" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1119</v>
+      </c>
+      <c r="G68" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -1872,18 +2552,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="E69" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1045</v>
+      </c>
+      <c r="G69" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -1893,18 +2583,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="E70" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G70" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -1914,18 +2614,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="E71" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1084</v>
+      </c>
+      <c r="G71" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -1935,18 +2645,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E72" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1063</v>
+      </c>
+      <c r="G72" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -1956,18 +2676,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hoteles o apartahotel</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="E73" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1028</v>
+      </c>
+      <c r="G73" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -1977,18 +2707,28 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>4635.05</v>
-      </c>
-      <c r="E74" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1091</v>
+      </c>
+      <c r="G74" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -1998,18 +2738,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>2812.59</v>
-      </c>
-      <c r="E75" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1015</v>
+      </c>
+      <c r="G75" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -2019,18 +2769,28 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>12982.36</v>
-      </c>
-      <c r="E76" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1078</v>
+      </c>
+      <c r="G76" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -2040,18 +2800,28 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>13163.49</v>
-      </c>
-      <c r="E77" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1057</v>
+      </c>
+      <c r="G77" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -2061,18 +2831,28 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>14113.35</v>
-      </c>
-      <c r="E78" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1041</v>
+      </c>
+      <c r="G78" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -2082,18 +2862,28 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>11835.97</v>
-      </c>
-      <c r="E79" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G79" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -2103,18 +2893,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>1490</v>
-      </c>
-      <c r="E80" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1216</v>
+      </c>
+      <c r="G80" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -2124,18 +2924,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>1320</v>
-      </c>
-      <c r="E81" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1227</v>
+      </c>
+      <c r="G81" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -2145,18 +2955,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>1392</v>
-      </c>
-      <c r="E82" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G82" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -2166,18 +2986,28 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>1354</v>
-      </c>
-      <c r="E83" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1213</v>
+      </c>
+      <c r="G83" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -2187,18 +3017,28 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>1373</v>
-      </c>
-      <c r="E84" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G84" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -2208,18 +3048,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>1391</v>
-      </c>
-      <c r="E85" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1125</v>
+      </c>
+      <c r="G85" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -2229,18 +3079,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>116</v>
-      </c>
-      <c r="E86" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1091</v>
+      </c>
+      <c r="G86" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -2250,18 +3110,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>116</v>
-      </c>
-      <c r="E87" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G87" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -2271,18 +3141,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>129</v>
-      </c>
-      <c r="E88" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1075</v>
+      </c>
+      <c r="G88" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -2292,18 +3172,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>123</v>
-      </c>
-      <c r="E89" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1045</v>
+      </c>
+      <c r="G89" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -2313,18 +3203,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>118</v>
-      </c>
-      <c r="E90" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1027</v>
+      </c>
+      <c r="G90" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -2334,18 +3234,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>111</v>
-      </c>
-      <c r="E91" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>996</v>
+      </c>
+      <c r="G91" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -2355,18 +3265,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="E92" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1048</v>
+      </c>
+      <c r="G92" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -2376,18 +3296,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="E93" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>963</v>
+      </c>
+      <c r="G93" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -2397,18 +3327,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="E94" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1051</v>
+      </c>
+      <c r="G94" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -2418,18 +3358,28 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>11</v>
-      </c>
-      <c r="E95" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1027</v>
+      </c>
+      <c r="G95" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -2439,18 +3389,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E96" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1019</v>
+      </c>
+      <c r="G96" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -2460,18 +3420,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Vivienda en alquiler</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E97" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>963</v>
+      </c>
+      <c r="G97" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -2481,18 +3451,28 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>1738.24</v>
-      </c>
-      <c r="E98" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1148</v>
+      </c>
+      <c r="G98" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -2502,18 +3482,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>1016.71</v>
-      </c>
-      <c r="E99" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G99" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -2523,18 +3513,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>4776.21</v>
-      </c>
-      <c r="E100" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G100" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -2544,18 +3544,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>4642.02</v>
-      </c>
-      <c r="E101" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1093</v>
+      </c>
+      <c r="G101" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -2565,18 +3575,28 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>3709.63</v>
-      </c>
-      <c r="E102" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1062</v>
+      </c>
+      <c r="G102" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -2586,18 +3606,28 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>14799.53</v>
-      </c>
-      <c r="E103" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1046</v>
+      </c>
+      <c r="G103" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -2607,18 +3637,28 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>1249</v>
-      </c>
-      <c r="E104" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1159</v>
+      </c>
+      <c r="G104" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -2628,18 +3668,28 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>1065</v>
-      </c>
-      <c r="E105" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1093</v>
+      </c>
+      <c r="G105" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -2649,18 +3699,28 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>1154</v>
-      </c>
-      <c r="E106" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G106" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -2670,18 +3730,28 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>1118</v>
-      </c>
-      <c r="E107" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1117</v>
+      </c>
+      <c r="G107" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -2691,18 +3761,28 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>1069</v>
-      </c>
-      <c r="E108" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1091</v>
+      </c>
+      <c r="G108" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -2712,18 +3792,28 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>1287</v>
-      </c>
-      <c r="E109" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1064</v>
+      </c>
+      <c r="G109" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -2733,18 +3823,28 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>117</v>
-      </c>
-      <c r="E110" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1236</v>
+      </c>
+      <c r="G110" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -2754,18 +3854,28 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>128</v>
-      </c>
-      <c r="E111" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1271</v>
+      </c>
+      <c r="G111" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -2775,18 +3885,28 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>140</v>
-      </c>
-      <c r="E112" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1279</v>
+      </c>
+      <c r="G112" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -2796,18 +3916,28 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>130</v>
-      </c>
-      <c r="E113" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1262</v>
+      </c>
+      <c r="G113" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -2817,18 +3947,28 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>114</v>
-      </c>
-      <c r="E114" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1204</v>
+      </c>
+      <c r="G114" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -2838,18 +3978,28 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>111</v>
-      </c>
-      <c r="E115" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1211</v>
+      </c>
+      <c r="G115" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -2859,18 +4009,28 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="E116" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1116</v>
+      </c>
+      <c r="G116" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -2880,18 +4040,28 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="E117" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1063</v>
+      </c>
+      <c r="G117" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -2901,18 +4071,28 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E118" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G118" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -2922,18 +4102,28 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="E119" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1073</v>
+      </c>
+      <c r="G119" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -2943,18 +4133,28 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="E120" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1053</v>
+      </c>
+      <c r="G120" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -2964,18 +4164,28 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Resto de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="E121" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G121" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -2985,18 +4195,28 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>6960.32</v>
-      </c>
-      <c r="E122" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1178</v>
+      </c>
+      <c r="G122" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -3006,18 +4226,28 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>4577.91</v>
-      </c>
-      <c r="E123" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1039</v>
+      </c>
+      <c r="G123" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -3027,18 +4257,28 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>14811.29</v>
-      </c>
-      <c r="E124" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G124" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -3048,18 +4288,28 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>15245.56</v>
-      </c>
-      <c r="E125" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>1103</v>
+      </c>
+      <c r="G125" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -3069,18 +4319,28 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>15362.12</v>
-      </c>
-      <c r="E126" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1074</v>
+      </c>
+      <c r="G126" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -3090,18 +4350,28 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>13805.43</v>
-      </c>
-      <c r="E127" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1039</v>
+      </c>
+      <c r="G127" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -3111,18 +4381,28 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>1086</v>
-      </c>
-      <c r="E128" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1227</v>
+      </c>
+      <c r="G128" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -3132,18 +4412,28 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>904</v>
-      </c>
-      <c r="E129" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1185</v>
+      </c>
+      <c r="G129" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -3153,18 +4443,28 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>979</v>
-      </c>
-      <c r="E130" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1218</v>
+      </c>
+      <c r="G130" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -3174,18 +4474,28 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>946</v>
-      </c>
-      <c r="E131" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1198</v>
+      </c>
+      <c r="G131" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -3195,18 +4505,28 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>919</v>
-      </c>
-      <c r="E132" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1182</v>
+      </c>
+      <c r="G132" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -3216,18 +4536,28 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>882</v>
-      </c>
-      <c r="E133" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1168</v>
+      </c>
+      <c r="G133" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -3237,18 +4567,28 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>77</v>
-      </c>
-      <c r="E134" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>137</v>
+      </c>
+      <c r="G134" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -3258,18 +4598,28 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>78</v>
-      </c>
-      <c r="E135" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>134</v>
+      </c>
+      <c r="G135" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -3279,18 +4629,28 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>86</v>
-      </c>
-      <c r="E136" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>155</v>
+      </c>
+      <c r="G136" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -3300,18 +4660,28 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>82</v>
-      </c>
-      <c r="E137" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>146</v>
+      </c>
+      <c r="G137" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -3321,18 +4691,28 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>81</v>
-      </c>
-      <c r="E138" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>137</v>
+      </c>
+      <c r="G138" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -3342,18 +4722,28 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>77</v>
-      </c>
-      <c r="E139" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>130</v>
+      </c>
+      <c r="G139" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -3363,18 +4753,28 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="E140" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>139</v>
+      </c>
+      <c r="G140" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -3384,18 +4784,28 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E141" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>133</v>
+      </c>
+      <c r="G141" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -3405,18 +4815,28 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E142" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>155</v>
+      </c>
+      <c r="G142" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -3426,18 +4846,28 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="E143" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>145</v>
+      </c>
+      <c r="G143" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -3447,18 +4877,28 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="E144" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>137</v>
+      </c>
+      <c r="G144" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -3468,18 +4908,28 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>No de mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E145" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>131</v>
+      </c>
+      <c r="G145" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -3489,18 +4939,28 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>3013.58</v>
-      </c>
-      <c r="E146" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>147</v>
+      </c>
+      <c r="G146" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -3510,18 +4970,28 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>1705.39</v>
-      </c>
-      <c r="E147" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>152</v>
+      </c>
+      <c r="G147" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -3531,18 +5001,28 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>5314.92</v>
-      </c>
-      <c r="E148" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>170</v>
+      </c>
+      <c r="G148" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -3552,18 +5032,28 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>5399.41</v>
-      </c>
-      <c r="E149" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>162</v>
+      </c>
+      <c r="G149" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -3573,18 +5063,28 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>4945.51</v>
-      </c>
-      <c r="E150" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>144</v>
+      </c>
+      <c r="G150" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -3594,18 +5094,28 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>5000.56</v>
-      </c>
-      <c r="E151" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>141</v>
+      </c>
+      <c r="G151" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -3615,18 +5125,28 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>1219</v>
-      </c>
-      <c r="E152" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>159</v>
+      </c>
+      <c r="G152" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -3636,18 +5156,28 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>1002</v>
-      </c>
-      <c r="E153" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>155</v>
+      </c>
+      <c r="G153" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -3657,18 +5187,28 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>1098</v>
-      </c>
-      <c r="E154" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>178</v>
+      </c>
+      <c r="G154" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -3678,18 +5218,28 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>1121</v>
-      </c>
-      <c r="E155" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>170</v>
+      </c>
+      <c r="G155" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -3699,18 +5249,28 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>1071</v>
-      </c>
-      <c r="E156" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>159</v>
+      </c>
+      <c r="G156" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -3720,18 +5280,28 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>1069</v>
-      </c>
-      <c r="E157" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>151</v>
+      </c>
+      <c r="G157" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -3741,18 +5311,28 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>68</v>
-      </c>
-      <c r="E158" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>136</v>
+      </c>
+      <c r="G158" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -3762,18 +5342,28 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>69</v>
-      </c>
-      <c r="E159" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>127</v>
+      </c>
+      <c r="G159" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -3783,18 +5373,28 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>69</v>
-      </c>
-      <c r="E160" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>152</v>
+      </c>
+      <c r="G160" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -3804,18 +5404,28 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>66</v>
-      </c>
-      <c r="E161" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>144</v>
+      </c>
+      <c r="G161" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -3825,18 +5435,28 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>62</v>
-      </c>
-      <c r="E162" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>136</v>
+      </c>
+      <c r="G162" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -3846,18 +5466,28 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>63</v>
-      </c>
-      <c r="E163" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>130</v>
+      </c>
+      <c r="G163" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -3867,18 +5497,28 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="E164" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>85</v>
+      </c>
+      <c r="G164" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -3888,18 +5528,28 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="E165" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>94</v>
+      </c>
+      <c r="G165" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -3909,18 +5559,28 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="E166" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>99</v>
+      </c>
+      <c r="G166" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -3930,18 +5590,28 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>17.02</v>
-      </c>
-      <c r="E167" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>92</v>
+      </c>
+      <c r="G167" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -3951,18 +5621,28 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="E168" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>90</v>
+      </c>
+      <c r="G168" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -3972,18 +5652,28 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Vivienda en propiedad</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="E169" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>87</v>
+      </c>
+      <c r="G169" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -3993,18 +5683,28 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>3690.44</v>
-      </c>
-      <c r="E170" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>136</v>
+      </c>
+      <c r="G170" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -4014,18 +5714,28 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>2633.79</v>
-      </c>
-      <c r="E171" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>135</v>
+      </c>
+      <c r="G171" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -4035,18 +5745,28 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>8773.65</v>
-      </c>
-      <c r="E172" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>155</v>
+      </c>
+      <c r="G172" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -4056,18 +5776,28 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>8870.65</v>
-      </c>
-      <c r="E173" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>146</v>
+      </c>
+      <c r="G173" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -4077,18 +5807,28 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>9175.450000000001</v>
-      </c>
-      <c r="E174" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>137</v>
+      </c>
+      <c r="G174" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -4098,18 +5838,28 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>7664</v>
-      </c>
-      <c r="E175" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>129</v>
+      </c>
+      <c r="G175" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -4119,18 +5869,28 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>1017</v>
-      </c>
-      <c r="E176" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>141</v>
+      </c>
+      <c r="G176" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -4140,18 +5900,28 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>884</v>
-      </c>
-      <c r="E177" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>154</v>
+      </c>
+      <c r="G177" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -4161,18 +5931,28 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>946</v>
-      </c>
-      <c r="E178" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>161</v>
+      </c>
+      <c r="G178" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -4182,18 +5962,28 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>896</v>
-      </c>
-      <c r="E179" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>152</v>
+      </c>
+      <c r="G179" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -4203,18 +5993,28 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>906</v>
-      </c>
-      <c r="E180" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>141</v>
+      </c>
+      <c r="G180" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -4224,18 +6024,28 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>839</v>
-      </c>
-      <c r="E181" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>127</v>
+      </c>
+      <c r="G181" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -4245,18 +6055,28 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>86</v>
-      </c>
-      <c r="E182" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>150</v>
+      </c>
+      <c r="G182" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -4266,18 +6086,28 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>86</v>
-      </c>
-      <c r="E183" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>146</v>
+      </c>
+      <c r="G183" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -4287,18 +6117,28 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>102</v>
-      </c>
-      <c r="E184" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>172</v>
+      </c>
+      <c r="G184" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -4308,18 +6148,28 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>96</v>
-      </c>
-      <c r="E185" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>164</v>
+      </c>
+      <c r="G185" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -4329,18 +6179,28 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>96</v>
-      </c>
-      <c r="E186" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>152</v>
+      </c>
+      <c r="G186" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -4350,18 +6210,28 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>88</v>
-      </c>
-      <c r="E187" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>144</v>
+      </c>
+      <c r="G187" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -4371,18 +6241,28 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="E188" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>131</v>
+      </c>
+      <c r="G188" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -4392,18 +6272,28 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="E189" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>129</v>
+      </c>
+      <c r="G189" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -4413,18 +6303,28 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="E190" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>150</v>
+      </c>
+      <c r="G190" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -4434,18 +6334,28 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="E191" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>142</v>
+      </c>
+      <c r="G191" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -4455,18 +6365,28 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E192" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>135</v>
+      </c>
+      <c r="G192" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -4476,18 +6396,28 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Vivienda de familiares o amigos</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="E193" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>129</v>
+      </c>
+      <c r="G193" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -4497,18 +6427,28 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>256.3</v>
-      </c>
-      <c r="E194" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>88</v>
+      </c>
+      <c r="G194" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -4518,18 +6458,28 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>238.73</v>
-      </c>
-      <c r="E195" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>101</v>
+      </c>
+      <c r="G195" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -4539,18 +6489,28 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>722.72</v>
-      </c>
-      <c r="E196" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>111</v>
+      </c>
+      <c r="G196" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -4560,18 +6520,28 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>975.51</v>
-      </c>
-      <c r="E197" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>100</v>
+      </c>
+      <c r="G197" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -4581,18 +6551,28 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>1241.15</v>
-      </c>
-      <c r="E198" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>97</v>
+      </c>
+      <c r="G198" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -4602,18 +6582,28 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Gasto total</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1140.88</v>
-      </c>
-      <c r="E199" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>92</v>
+      </c>
+      <c r="G199" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -4623,18 +6613,28 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>828</v>
-      </c>
-      <c r="E200" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="G200" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -4644,18 +6644,28 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>631</v>
-      </c>
-      <c r="E201" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="G201" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -4665,18 +6675,28 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>714</v>
-      </c>
-      <c r="E202" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="G202" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -4686,18 +6706,28 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>701</v>
-      </c>
-      <c r="E203" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="G203" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -4707,18 +6737,28 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>630</v>
-      </c>
-      <c r="E204" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="G204" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -4728,18 +6768,28 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Gasto medio por persona</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>621</v>
-      </c>
-      <c r="E205" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="G205" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -4749,18 +6799,28 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>81</v>
-      </c>
-      <c r="E206" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="G206" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -4770,18 +6830,28 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>71</v>
-      </c>
-      <c r="E207" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="G207" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -4791,18 +6861,28 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>86</v>
-      </c>
-      <c r="E208" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="G208" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -4812,18 +6892,28 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>83</v>
-      </c>
-      <c r="E209" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="G209" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -4833,18 +6923,28 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>87</v>
-      </c>
-      <c r="E210" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="G210" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -4854,18 +6954,28 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Gasto medio diario por persona</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>83</v>
-      </c>
-      <c r="E211" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="G211" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
@@ -4875,18 +6985,28 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="E212" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="G212" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
@@ -4896,18 +7016,28 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E213" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="G213" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
@@ -4917,18 +7047,28 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="E214" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="G214" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
@@ -4938,18 +7078,28 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="E215" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="G215" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -4959,18 +7109,28 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Duración media de los viajes</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="E216" s="2" t="n">
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G216" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
@@ -4980,18 +7140,1516 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Resto de no mercado</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>Duración media de los viajes</t>
         </is>
       </c>
-      <c r="D217" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="E217" s="2" t="n">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G218" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="G220" s="2" t="n">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="G232" s="2" t="n">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="G233" s="2" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="G235" s="2" t="n">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="G236" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="G237" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G238" s="2" t="n">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="G240" s="2" t="n">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Todas las edades</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="G242" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="G243" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="G244" s="2" t="n">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="G245" s="2" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="G246" s="2" t="n">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>De 15 a 24 años</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="G247" s="2" t="n">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="G248" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G249" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="G250" s="2" t="n">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G251" s="2" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="G252" s="2" t="n">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>De 25 a 44 años</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G253" s="2" t="n">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>9</v>
+      </c>
+      <c r="G254" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="G255" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G256" s="2" t="n">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="G257" s="2" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="G258" s="2" t="n">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>De 45 a 64 años</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="G259" s="2" t="n">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="G260" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="G261" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="G262" s="2" t="n">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="G263" s="2" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="G264" s="2" t="n">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Duración media de los viajes</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Total Nacional</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>65 y más años</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="G265" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
